--- a/employee_details.xlsx
+++ b/employee_details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patol\OneDrive\Desktop\Movya\BdayFestivalWishes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401C0645-D2A6-4336-B0EF-8D98F79E011E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55627948-38F5-41A6-BBA8-3E1DA9930F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="400">
   <si>
     <t>id</t>
   </si>
@@ -31,934 +31,1195 @@
     <t>email</t>
   </si>
   <si>
-    <t>gender</t>
-  </si>
-  <si>
     <t>dob</t>
   </si>
   <si>
-    <t>Catherin Gaynsford</t>
-  </si>
-  <si>
-    <t>cgaynsford0@live.com</t>
-  </si>
-  <si>
-    <t>Genderqueer</t>
-  </si>
-  <si>
-    <t>1999-04-30</t>
-  </si>
-  <si>
-    <t>Shep Willoughey</t>
-  </si>
-  <si>
-    <t>swilloughey1@arstechnica.com</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>2005-02-12</t>
-  </si>
-  <si>
-    <t>Conn Nutman</t>
-  </si>
-  <si>
-    <t>cnutman2@fema.gov</t>
-  </si>
-  <si>
-    <t>2000-05-30</t>
-  </si>
-  <si>
-    <t>Cchaddie de Chastelain</t>
-  </si>
-  <si>
-    <t>cde3@japanpost.jp</t>
-  </si>
-  <si>
-    <t>1997-11-18</t>
-  </si>
-  <si>
-    <t>Cathlene Chomicz</t>
-  </si>
-  <si>
-    <t>cchomicz4@seattletimes.com</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>2002-06-04</t>
-  </si>
-  <si>
-    <t>Yalonda Prigg</t>
-  </si>
-  <si>
-    <t>yprigg5@seattletimes.com</t>
-  </si>
-  <si>
-    <t>1998-02-13</t>
-  </si>
-  <si>
-    <t>Anet Ferreri</t>
-  </si>
-  <si>
-    <t>aferreri6@google.com</t>
-  </si>
-  <si>
-    <t>2001-02-03</t>
-  </si>
-  <si>
-    <t>Kary Longmate</t>
-  </si>
-  <si>
-    <t>klongmate7@simplemachines.org</t>
-  </si>
-  <si>
-    <t>1996-06-12</t>
-  </si>
-  <si>
-    <t>Vivien Blaydes</t>
-  </si>
-  <si>
-    <t>vblaydes8@omniture.com</t>
-  </si>
-  <si>
-    <t>Hanni Tommis</t>
-  </si>
-  <si>
-    <t>htommis9@shareasale.com</t>
-  </si>
-  <si>
-    <t>1997-06-18</t>
-  </si>
-  <si>
-    <t>Claire Peevor</t>
-  </si>
-  <si>
-    <t>cpeevora@amazon.com</t>
-  </si>
-  <si>
-    <t>Polygender</t>
-  </si>
-  <si>
-    <t>2005-04-14</t>
-  </si>
-  <si>
-    <t>Elayne Heaney`</t>
-  </si>
-  <si>
-    <t>eheaneyb@dagondesign.com</t>
-  </si>
-  <si>
-    <t>1996-08-13</t>
-  </si>
-  <si>
-    <t>Conan McKevitt</t>
-  </si>
-  <si>
-    <t>cmckevittc@amazon.co.jp</t>
-  </si>
-  <si>
-    <t>2003-05-11</t>
-  </si>
-  <si>
-    <t>Bret MacFadyen</t>
-  </si>
-  <si>
-    <t>bmacfadyend@vimeo.com</t>
-  </si>
-  <si>
-    <t>2004-04-04</t>
-  </si>
-  <si>
-    <t>Niki Sprowson</t>
-  </si>
-  <si>
-    <t>nsprowsone@1und1.de</t>
+    <t>joining_date</t>
+  </si>
+  <si>
+    <t>Kiri Munkley</t>
+  </si>
+  <si>
+    <t>kmunkley0@google.nl</t>
+  </si>
+  <si>
+    <t>1997-02-15</t>
+  </si>
+  <si>
+    <t>2024-07-31</t>
+  </si>
+  <si>
+    <t>Hobie Peebles</t>
+  </si>
+  <si>
+    <t>hpeebles1@devhub.com</t>
+  </si>
+  <si>
+    <t>2006-11-16</t>
+  </si>
+  <si>
+    <t>2018-03-11</t>
+  </si>
+  <si>
+    <t>Rriocard Ralling</t>
+  </si>
+  <si>
+    <t>rralling2@miitbeian.gov.cn</t>
+  </si>
+  <si>
+    <t>2000-06-23</t>
+  </si>
+  <si>
+    <t>2022-11-10</t>
+  </si>
+  <si>
+    <t>Erena Kingsnode</t>
+  </si>
+  <si>
+    <t>ekingsnode3@spiegel.de</t>
+  </si>
+  <si>
+    <t>2000-11-18</t>
+  </si>
+  <si>
+    <t>2021-02-17</t>
+  </si>
+  <si>
+    <t>Avictor Pinney</t>
+  </si>
+  <si>
+    <t>apinney4@reuters.com</t>
+  </si>
+  <si>
+    <t>2004-09-10</t>
+  </si>
+  <si>
+    <t>2023-06-11</t>
+  </si>
+  <si>
+    <t>Reeba Paddeley</t>
+  </si>
+  <si>
+    <t>rpaddeley5@columbia.edu</t>
+  </si>
+  <si>
+    <t>2005-12-14</t>
+  </si>
+  <si>
+    <t>2014-10-14</t>
+  </si>
+  <si>
+    <t>Guenna Josling</t>
+  </si>
+  <si>
+    <t>gjosling6@surveymonkey.com</t>
+  </si>
+  <si>
+    <t>2006-01-29</t>
+  </si>
+  <si>
+    <t>2015-08-07</t>
+  </si>
+  <si>
+    <t>Nessa Tunnicliffe</t>
+  </si>
+  <si>
+    <t>ntunnicliffe7@columbia.edu</t>
+  </si>
+  <si>
+    <t>1999-06-17</t>
+  </si>
+  <si>
+    <t>2013-03-19</t>
+  </si>
+  <si>
+    <t>Ranice Perkins</t>
+  </si>
+  <si>
+    <t>rperkins8@yale.edu</t>
+  </si>
+  <si>
+    <t>1999-06-09</t>
+  </si>
+  <si>
+    <t>2023-08-04</t>
+  </si>
+  <si>
+    <t>Deerdre Yushankin</t>
+  </si>
+  <si>
+    <t>dyushankin9@booking.com</t>
+  </si>
+  <si>
+    <t>2006-05-26</t>
+  </si>
+  <si>
+    <t>2014-03-02</t>
+  </si>
+  <si>
+    <t>Kass Minchell</t>
+  </si>
+  <si>
+    <t>kminchella@utexas.edu</t>
+  </si>
+  <si>
+    <t>1999-12-01</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>Ned Vida</t>
+  </si>
+  <si>
+    <t>nvidab@topsy.com</t>
+  </si>
+  <si>
+    <t>2006-07-27</t>
+  </si>
+  <si>
+    <t>2013-04-30</t>
+  </si>
+  <si>
+    <t>Seth Grimm</t>
+  </si>
+  <si>
+    <t>sgrimmc@aol.com</t>
+  </si>
+  <si>
+    <t>2005-10-14</t>
+  </si>
+  <si>
+    <t>2021-11-14</t>
+  </si>
+  <si>
+    <t>Gerri O'Lenane</t>
+  </si>
+  <si>
+    <t>golenaned@digg.com</t>
+  </si>
+  <si>
+    <t>2004-10-07</t>
+  </si>
+  <si>
+    <t>2011-08-01</t>
+  </si>
+  <si>
+    <t>Dewitt Patnelli</t>
+  </si>
+  <si>
+    <t>dpatnellie@goodreads.com</t>
+  </si>
+  <si>
+    <t>1999-10-22</t>
+  </si>
+  <si>
+    <t>2010-01-04</t>
+  </si>
+  <si>
+    <t>Elvin Ellph</t>
+  </si>
+  <si>
+    <t>eellphf@wiley.com</t>
+  </si>
+  <si>
+    <t>2006-11-03</t>
+  </si>
+  <si>
+    <t>2023-03-02</t>
+  </si>
+  <si>
+    <t>Issie Rosenau</t>
+  </si>
+  <si>
+    <t>irosenaug@goo.ne.jp</t>
+  </si>
+  <si>
+    <t>1997-07-01</t>
+  </si>
+  <si>
+    <t>2016-01-09</t>
+  </si>
+  <si>
+    <t>Maybelle Loosley</t>
+  </si>
+  <si>
+    <t>mloosleyh@sciencedirect.com</t>
+  </si>
+  <si>
+    <t>2004-05-08</t>
+  </si>
+  <si>
+    <t>2020-09-22</t>
+  </si>
+  <si>
+    <t>Mannie Pattesall</t>
+  </si>
+  <si>
+    <t>mpattesalli@facebook.com</t>
+  </si>
+  <si>
+    <t>1998-08-03</t>
+  </si>
+  <si>
+    <t>2014-03-07</t>
+  </si>
+  <si>
+    <t>Karee Vasilechko</t>
+  </si>
+  <si>
+    <t>kvasilechkoj@pinterest.com</t>
+  </si>
+  <si>
+    <t>2001-09-03</t>
+  </si>
+  <si>
+    <t>2018-07-09</t>
+  </si>
+  <si>
+    <t>Colman Fitzsimmons</t>
+  </si>
+  <si>
+    <t>cfitzsimmonsk@alibaba.com</t>
+  </si>
+  <si>
+    <t>1998-02-04</t>
+  </si>
+  <si>
+    <t>2023-08-03</t>
+  </si>
+  <si>
+    <t>Jo Brave</t>
+  </si>
+  <si>
+    <t>jbravel@about.me</t>
+  </si>
+  <si>
+    <t>1998-05-01</t>
+  </si>
+  <si>
+    <t>2016-10-21</t>
+  </si>
+  <si>
+    <t>Annis Sleeny</t>
+  </si>
+  <si>
+    <t>asleenym@hostgator.com</t>
+  </si>
+  <si>
+    <t>2005-10-10</t>
+  </si>
+  <si>
+    <t>2021-03-09</t>
+  </si>
+  <si>
+    <t>Symon Beazley</t>
+  </si>
+  <si>
+    <t>sbeazleyn@blog.com</t>
+  </si>
+  <si>
+    <t>2003-08-25</t>
+  </si>
+  <si>
+    <t>2015-10-02</t>
+  </si>
+  <si>
+    <t>Kennan Willoughley</t>
+  </si>
+  <si>
+    <t>kwilloughleyo@moonfruit.com</t>
+  </si>
+  <si>
+    <t>2005-12-15</t>
+  </si>
+  <si>
+    <t>2010-09-18</t>
+  </si>
+  <si>
+    <t>Jania Jansa</t>
+  </si>
+  <si>
+    <t>jjansap@msn.com</t>
+  </si>
+  <si>
+    <t>1997-08-19</t>
+  </si>
+  <si>
+    <t>2024-03-15</t>
+  </si>
+  <si>
+    <t>Gunar Chicchelli</t>
+  </si>
+  <si>
+    <t>gchicchelliq@taobao.com</t>
+  </si>
+  <si>
+    <t>2016-06-02</t>
+  </si>
+  <si>
+    <t>Codie Hardage</t>
+  </si>
+  <si>
+    <t>chardager@moonfruit.com</t>
+  </si>
+  <si>
+    <t>2001-06-15</t>
+  </si>
+  <si>
+    <t>2012-09-20</t>
+  </si>
+  <si>
+    <t>Merell Van der Kruis</t>
+  </si>
+  <si>
+    <t>mvans@xing.com</t>
+  </si>
+  <si>
+    <t>2006-12-07</t>
+  </si>
+  <si>
+    <t>2020-04-10</t>
+  </si>
+  <si>
+    <t>Alejoa Wickardt</t>
+  </si>
+  <si>
+    <t>awickardtt@icq.com</t>
+  </si>
+  <si>
+    <t>2006-07-12</t>
+  </si>
+  <si>
+    <t>2014-11-25</t>
+  </si>
+  <si>
+    <t>Yolande Gabits</t>
+  </si>
+  <si>
+    <t>ygabitsu@techcrunch.com</t>
+  </si>
+  <si>
+    <t>1999-11-19</t>
+  </si>
+  <si>
+    <t>2010-08-30</t>
+  </si>
+  <si>
+    <t>Phillis Josefovic</t>
+  </si>
+  <si>
+    <t>pjosefovicv@istockphoto.com</t>
+  </si>
+  <si>
+    <t>1997-09-01</t>
+  </si>
+  <si>
+    <t>2022-06-07</t>
+  </si>
+  <si>
+    <t>Ortensia Daingerfield</t>
+  </si>
+  <si>
+    <t>odaingerfieldw@lulu.com</t>
+  </si>
+  <si>
+    <t>2001-05-12</t>
+  </si>
+  <si>
+    <t>2015-07-03</t>
+  </si>
+  <si>
+    <t>Margret Fibbitts</t>
+  </si>
+  <si>
+    <t>mfibbittsx@cafepress.com</t>
+  </si>
+  <si>
+    <t>2005-04-16</t>
+  </si>
+  <si>
+    <t>2023-04-01</t>
+  </si>
+  <si>
+    <t>Kristyn Quincey</t>
+  </si>
+  <si>
+    <t>kquinceyy@flickr.com</t>
+  </si>
+  <si>
+    <t>1999-11-12</t>
+  </si>
+  <si>
+    <t>2020-03-04</t>
+  </si>
+  <si>
+    <t>Rhett Stolz</t>
+  </si>
+  <si>
+    <t>rstolzz@boston.com</t>
+  </si>
+  <si>
+    <t>2002-05-07</t>
+  </si>
+  <si>
+    <t>2012-04-18</t>
+  </si>
+  <si>
+    <t>Constantina Kilby</t>
+  </si>
+  <si>
+    <t>ckilby10@themeforest.net</t>
+  </si>
+  <si>
+    <t>2000-12-27</t>
+  </si>
+  <si>
+    <t>2013-05-11</t>
+  </si>
+  <si>
+    <t>Maxine Winter</t>
+  </si>
+  <si>
+    <t>mwinter11@flavors.me</t>
+  </si>
+  <si>
+    <t>2005-11-25</t>
+  </si>
+  <si>
+    <t>2013-10-29</t>
+  </si>
+  <si>
+    <t>Joshuah Baxstair</t>
+  </si>
+  <si>
+    <t>jbaxstair12@wp.com</t>
+  </si>
+  <si>
+    <t>2003-12-26</t>
+  </si>
+  <si>
+    <t>2015-06-19</t>
+  </si>
+  <si>
+    <t>Collen Strutton</t>
+  </si>
+  <si>
+    <t>cstrutton13@artisteer.com</t>
+  </si>
+  <si>
+    <t>2003-12-12</t>
+  </si>
+  <si>
+    <t>2015-10-01</t>
+  </si>
+  <si>
+    <t>Ody Mc Corley</t>
+  </si>
+  <si>
+    <t>omc14@dagondesign.com</t>
+  </si>
+  <si>
+    <t>2006-12-14</t>
+  </si>
+  <si>
+    <t>2017-02-01</t>
+  </si>
+  <si>
+    <t>Stevena McGuggy</t>
+  </si>
+  <si>
+    <t>smcguggy15@sitemeter.com</t>
+  </si>
+  <si>
+    <t>2004-04-19</t>
+  </si>
+  <si>
+    <t>2021-12-20</t>
+  </si>
+  <si>
+    <t>Langston Hasslocher</t>
+  </si>
+  <si>
+    <t>lhasslocher16@dell.com</t>
+  </si>
+  <si>
+    <t>2001-07-26</t>
+  </si>
+  <si>
+    <t>2019-08-24</t>
+  </si>
+  <si>
+    <t>Lazare Sillitoe</t>
+  </si>
+  <si>
+    <t>lsillitoe17@people.com.cn</t>
+  </si>
+  <si>
+    <t>2003-07-15</t>
+  </si>
+  <si>
+    <t>2016-12-04</t>
+  </si>
+  <si>
+    <t>Miranda Pell</t>
+  </si>
+  <si>
+    <t>mpell18@irs.gov</t>
+  </si>
+  <si>
+    <t>1998-08-09</t>
+  </si>
+  <si>
+    <t>2012-06-01</t>
+  </si>
+  <si>
+    <t>Margareta Solon</t>
+  </si>
+  <si>
+    <t>msolon19@google.ca</t>
+  </si>
+  <si>
+    <t>2001-01-25</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>Della Brehaut</t>
+  </si>
+  <si>
+    <t>dbrehaut1a@techcrunch.com</t>
+  </si>
+  <si>
+    <t>1999-02-16</t>
+  </si>
+  <si>
+    <t>2022-08-31</t>
+  </si>
+  <si>
+    <t>Chere Wallbanks</t>
+  </si>
+  <si>
+    <t>cwallbanks1b@yelp.com</t>
+  </si>
+  <si>
+    <t>1997-07-26</t>
+  </si>
+  <si>
+    <t>2018-05-21</t>
+  </si>
+  <si>
+    <t>Lexie Varnam</t>
+  </si>
+  <si>
+    <t>lvarnam1c@youtu.be</t>
+  </si>
+  <si>
+    <t>2006-05-23</t>
+  </si>
+  <si>
+    <t>2012-01-29</t>
+  </si>
+  <si>
+    <t>Eilis Gutans</t>
+  </si>
+  <si>
+    <t>egutans1d@mapy.cz</t>
+  </si>
+  <si>
+    <t>2006-02-19</t>
+  </si>
+  <si>
+    <t>2017-12-12</t>
+  </si>
+  <si>
+    <t>Westley Echalier</t>
+  </si>
+  <si>
+    <t>wechalier1e@list-manage.com</t>
+  </si>
+  <si>
+    <t>2006-01-25</t>
+  </si>
+  <si>
+    <t>2020-07-26</t>
+  </si>
+  <si>
+    <t>Sonja Scadden</t>
+  </si>
+  <si>
+    <t>sscadden1f@sfgate.com</t>
+  </si>
+  <si>
+    <t>2001-06-17</t>
+  </si>
+  <si>
+    <t>2010-12-07</t>
+  </si>
+  <si>
+    <t>Fax Olorenshaw</t>
+  </si>
+  <si>
+    <t>folorenshaw1g@mapquest.com</t>
+  </si>
+  <si>
+    <t>2002-01-26</t>
+  </si>
+  <si>
+    <t>2010-06-15</t>
+  </si>
+  <si>
+    <t>Dorise Dumbarton</t>
+  </si>
+  <si>
+    <t>ddumbarton1h@istockphoto.com</t>
+  </si>
+  <si>
+    <t>1997-07-11</t>
+  </si>
+  <si>
+    <t>2010-06-12</t>
+  </si>
+  <si>
+    <t>Corliss Baitman</t>
+  </si>
+  <si>
+    <t>cbaitman1i@imgur.com</t>
+  </si>
+  <si>
+    <t>1997-11-03</t>
+  </si>
+  <si>
+    <t>2013-05-24</t>
+  </si>
+  <si>
+    <t>Dorella Donati</t>
+  </si>
+  <si>
+    <t>ddonati1j@gnu.org</t>
+  </si>
+  <si>
+    <t>2005-07-17</t>
+  </si>
+  <si>
+    <t>2018-05-31</t>
+  </si>
+  <si>
+    <t>Rasia Reuter</t>
+  </si>
+  <si>
+    <t>rreuter1k@cocolog-nifty.com</t>
+  </si>
+  <si>
+    <t>1998-07-10</t>
+  </si>
+  <si>
+    <t>2013-10-31</t>
+  </si>
+  <si>
+    <t>Remy Abisetti</t>
+  </si>
+  <si>
+    <t>rabisetti1l@umich.edu</t>
+  </si>
+  <si>
+    <t>2000-05-22</t>
+  </si>
+  <si>
+    <t>2010-08-17</t>
+  </si>
+  <si>
+    <t>Edi Akerman</t>
+  </si>
+  <si>
+    <t>eakerman1m@tmall.com</t>
+  </si>
+  <si>
+    <t>1998-03-14</t>
+  </si>
+  <si>
+    <t>2019-09-25</t>
+  </si>
+  <si>
+    <t>Yevette Dikels</t>
+  </si>
+  <si>
+    <t>ydikels1n@google.it</t>
+  </si>
+  <si>
+    <t>2003-07-29</t>
+  </si>
+  <si>
+    <t>2021-02-04</t>
+  </si>
+  <si>
+    <t>Petey Grisbrook</t>
+  </si>
+  <si>
+    <t>pgrisbrook1o@canalblog.com</t>
+  </si>
+  <si>
+    <t>2006-06-07</t>
+  </si>
+  <si>
+    <t>2022-07-21</t>
+  </si>
+  <si>
+    <t>Erie Bennallck</t>
+  </si>
+  <si>
+    <t>ebennallck1p@weather.com</t>
+  </si>
+  <si>
+    <t>2001-05-05</t>
+  </si>
+  <si>
+    <t>2017-04-08</t>
+  </si>
+  <si>
+    <t>Jammal Brannan</t>
+  </si>
+  <si>
+    <t>jbrannan1q@nps.gov</t>
+  </si>
+  <si>
+    <t>2006-02-03</t>
+  </si>
+  <si>
+    <t>2011-05-27</t>
+  </si>
+  <si>
+    <t>Geneva Dunsire</t>
+  </si>
+  <si>
+    <t>gdunsire1r@ft.com</t>
+  </si>
+  <si>
+    <t>2001-12-15</t>
+  </si>
+  <si>
+    <t>2020-09-23</t>
+  </si>
+  <si>
+    <t>Lizabeth Saile</t>
+  </si>
+  <si>
+    <t>lsaile1s@upenn.edu</t>
+  </si>
+  <si>
+    <t>2004-04-01</t>
+  </si>
+  <si>
+    <t>2016-05-23</t>
+  </si>
+  <si>
+    <t>Karlotte Staner</t>
+  </si>
+  <si>
+    <t>kstaner1t@cdc.gov</t>
+  </si>
+  <si>
+    <t>2000-10-03</t>
+  </si>
+  <si>
+    <t>2020-08-06</t>
+  </si>
+  <si>
+    <t>Rena Goffe</t>
+  </si>
+  <si>
+    <t>rgoffe1u@free.fr</t>
+  </si>
+  <si>
+    <t>2002-06-17</t>
+  </si>
+  <si>
+    <t>2014-12-16</t>
+  </si>
+  <si>
+    <t>Sonia Verlinde</t>
+  </si>
+  <si>
+    <t>sverlinde1v@bravesites.com</t>
+  </si>
+  <si>
+    <t>2004-01-18</t>
+  </si>
+  <si>
+    <t>2014-10-13</t>
+  </si>
+  <si>
+    <t>Elicia Thurske</t>
+  </si>
+  <si>
+    <t>ethurske1w@tripod.com</t>
+  </si>
+  <si>
+    <t>2001-01-05</t>
+  </si>
+  <si>
+    <t>2020-10-26</t>
+  </si>
+  <si>
+    <t>Zondra McCrie</t>
+  </si>
+  <si>
+    <t>zmccrie1x@com.com</t>
+  </si>
+  <si>
+    <t>2004-03-31</t>
+  </si>
+  <si>
+    <t>2011-10-09</t>
+  </si>
+  <si>
+    <t>Fay Ferencowicz</t>
+  </si>
+  <si>
+    <t>fferencowicz1y@bloomberg.com</t>
+  </si>
+  <si>
+    <t>2000-12-11</t>
+  </si>
+  <si>
+    <t>2016-09-17</t>
+  </si>
+  <si>
+    <t>Tamiko Duerden</t>
+  </si>
+  <si>
+    <t>tduerden1z@g.co</t>
+  </si>
+  <si>
+    <t>1998-09-21</t>
+  </si>
+  <si>
+    <t>2017-05-31</t>
+  </si>
+  <si>
+    <t>Gunilla Kellegher</t>
+  </si>
+  <si>
+    <t>gkellegher20@paginegialle.it</t>
+  </si>
+  <si>
+    <t>2004-02-23</t>
+  </si>
+  <si>
+    <t>2020-10-12</t>
+  </si>
+  <si>
+    <t>Winny Haynes</t>
+  </si>
+  <si>
+    <t>whaynes21@nytimes.com</t>
+  </si>
+  <si>
+    <t>1998-04-30</t>
+  </si>
+  <si>
+    <t>2021-10-12</t>
+  </si>
+  <si>
+    <t>Mel Dinjes</t>
+  </si>
+  <si>
+    <t>mdinjes22@sogou.com</t>
+  </si>
+  <si>
+    <t>2002-09-17</t>
+  </si>
+  <si>
+    <t>2024-01-26</t>
+  </si>
+  <si>
+    <t>Jeremiah Geering</t>
+  </si>
+  <si>
+    <t>jgeering23@cnn.com</t>
+  </si>
+  <si>
+    <t>2001-08-21</t>
+  </si>
+  <si>
+    <t>2020-03-05</t>
+  </si>
+  <si>
+    <t>Monique Lambal</t>
+  </si>
+  <si>
+    <t>mlambal24@narod.ru</t>
+  </si>
+  <si>
+    <t>2004-12-08</t>
+  </si>
+  <si>
+    <t>2013-07-08</t>
+  </si>
+  <si>
+    <t>Sylas North</t>
+  </si>
+  <si>
+    <t>snorth25@techcrunch.com</t>
+  </si>
+  <si>
+    <t>2020-03-12</t>
+  </si>
+  <si>
+    <t>Marja Snelman</t>
+  </si>
+  <si>
+    <t>msnelman26@eventbrite.com</t>
+  </si>
+  <si>
+    <t>2005-08-21</t>
+  </si>
+  <si>
+    <t>2017-11-13</t>
+  </si>
+  <si>
+    <t>Vivia Groundwater</t>
+  </si>
+  <si>
+    <t>vgroundwater27@last.fm</t>
+  </si>
+  <si>
+    <t>2023-12-22</t>
+  </si>
+  <si>
+    <t>Letta Keson</t>
+  </si>
+  <si>
+    <t>lkeson28@reuters.com</t>
+  </si>
+  <si>
+    <t>1999-09-21</t>
+  </si>
+  <si>
+    <t>2018-08-27</t>
+  </si>
+  <si>
+    <t>Redford Pendrey</t>
+  </si>
+  <si>
+    <t>rpendrey29@nih.gov</t>
+  </si>
+  <si>
+    <t>2002-06-12</t>
+  </si>
+  <si>
+    <t>2010-01-18</t>
+  </si>
+  <si>
+    <t>Durward Toffaloni</t>
+  </si>
+  <si>
+    <t>dtoffaloni2a@51.la</t>
+  </si>
+  <si>
+    <t>1999-08-10</t>
+  </si>
+  <si>
+    <t>2016-12-25</t>
+  </si>
+  <si>
+    <t>Thayne Agdahl</t>
+  </si>
+  <si>
+    <t>tagdahl2b@bluehost.com</t>
+  </si>
+  <si>
+    <t>1997-11-26</t>
+  </si>
+  <si>
+    <t>2024-03-06</t>
+  </si>
+  <si>
+    <t>Tandie Guirau</t>
+  </si>
+  <si>
+    <t>tguirau2c@bizjournals.com</t>
+  </si>
+  <si>
+    <t>1999-01-11</t>
+  </si>
+  <si>
+    <t>2011-11-20</t>
+  </si>
+  <si>
+    <t>Eryn Wilds</t>
+  </si>
+  <si>
+    <t>ewilds2d@archive.org</t>
+  </si>
+  <si>
+    <t>1999-10-23</t>
+  </si>
+  <si>
+    <t>2017-08-10</t>
+  </si>
+  <si>
+    <t>Layne Dmytryk</t>
+  </si>
+  <si>
+    <t>ldmytryk2e@squarespace.com</t>
   </si>
   <si>
     <t>1998-10-06</t>
   </si>
   <si>
-    <t>Barbara Greaves</t>
-  </si>
-  <si>
-    <t>bgreavesf@businessweek.com</t>
-  </si>
-  <si>
-    <t>2005-04-27</t>
-  </si>
-  <si>
-    <t>Ambrose Witcomb</t>
-  </si>
-  <si>
-    <t>awitcombg@issuu.com</t>
-  </si>
-  <si>
-    <t>2005-10-02</t>
-  </si>
-  <si>
-    <t>Brenda Fitchew</t>
-  </si>
-  <si>
-    <t>bfitchewh@dmoz.org</t>
-  </si>
-  <si>
-    <t>1999-03-16</t>
-  </si>
-  <si>
-    <t>Fabe Rumford</t>
-  </si>
-  <si>
-    <t>frumfordi@sakura.ne.jp</t>
-  </si>
-  <si>
-    <t>1996-06-07</t>
-  </si>
-  <si>
-    <t>Nerty Spalton</t>
-  </si>
-  <si>
-    <t>nspaltonj@intel.com</t>
-  </si>
-  <si>
-    <t>2001-10-11</t>
-  </si>
-  <si>
-    <t>Virgie McGrotty</t>
-  </si>
-  <si>
-    <t>vmcgrottyk@oakley.com</t>
-  </si>
-  <si>
-    <t>2002-06-10</t>
-  </si>
-  <si>
-    <t>Logan Cabral</t>
-  </si>
-  <si>
-    <t>lcabrall@google.it</t>
-  </si>
-  <si>
-    <t>2000-05-13</t>
-  </si>
-  <si>
-    <t>Trumann Penddreth</t>
-  </si>
-  <si>
-    <t>tpenddrethm@sfgate.com</t>
-  </si>
-  <si>
-    <t>1995-09-04</t>
-  </si>
-  <si>
-    <t>Abigale Windle</t>
-  </si>
-  <si>
-    <t>awindlen@joomla.org</t>
-  </si>
-  <si>
-    <t>2005-11-18</t>
-  </si>
-  <si>
-    <t>Christy Raisbeck</t>
-  </si>
-  <si>
-    <t>craisbecko@linkedin.com</t>
-  </si>
-  <si>
-    <t>2000-02-22</t>
-  </si>
-  <si>
-    <t>Maggee Breinl</t>
-  </si>
-  <si>
-    <t>mbreinlp@twitpic.com</t>
-  </si>
-  <si>
-    <t>1996-05-22</t>
-  </si>
-  <si>
-    <t>Cooper Lymer</t>
-  </si>
-  <si>
-    <t>clymerq@nhs.uk</t>
-  </si>
-  <si>
-    <t>1996-08-22</t>
-  </si>
-  <si>
-    <t>Kylynn Jervoise</t>
-  </si>
-  <si>
-    <t>kjervoiser@deviantart.com</t>
-  </si>
-  <si>
-    <t>2000-07-26</t>
-  </si>
-  <si>
-    <t>Batholomew Acklands</t>
-  </si>
-  <si>
-    <t>backlandss@pen.io</t>
-  </si>
-  <si>
-    <t>1996-11-07</t>
-  </si>
-  <si>
-    <t>Erny Probert</t>
-  </si>
-  <si>
-    <t>eprobertt@upenn.edu</t>
-  </si>
-  <si>
-    <t>1999-01-29</t>
-  </si>
-  <si>
-    <t>Dasya Samuel</t>
-  </si>
-  <si>
-    <t>dsamuelu@hp.com</t>
-  </si>
-  <si>
-    <t>2000-04-01</t>
-  </si>
-  <si>
-    <t>Charlotta Spawton</t>
-  </si>
-  <si>
-    <t>cspawtonv@so-net.ne.jp</t>
-  </si>
-  <si>
-    <t>Agender</t>
-  </si>
-  <si>
-    <t>2000-12-15</t>
-  </si>
-  <si>
-    <t>Dennie Foley</t>
-  </si>
-  <si>
-    <t>dfoleyw@godaddy.com</t>
-  </si>
-  <si>
-    <t>2004-02-27</t>
-  </si>
-  <si>
-    <t>Donelle Lanphere</t>
-  </si>
-  <si>
-    <t>dlanpherex@amazon.co.jp</t>
-  </si>
-  <si>
-    <t>1996-10-22</t>
-  </si>
-  <si>
-    <t>Hephzibah Turmall</t>
-  </si>
-  <si>
-    <t>hturmally@jiathis.com</t>
-  </si>
-  <si>
-    <t>2001-09-02</t>
-  </si>
-  <si>
-    <t>Tallou Emmison</t>
-  </si>
-  <si>
-    <t>temmisonz@homestead.com</t>
-  </si>
-  <si>
-    <t>2004-03-04</t>
-  </si>
-  <si>
-    <t>Helene Causier</t>
-  </si>
-  <si>
-    <t>hcausier10@arstechnica.com</t>
-  </si>
-  <si>
-    <t>1998-05-19</t>
-  </si>
-  <si>
-    <t>Danice Vile</t>
-  </si>
-  <si>
-    <t>dvile11@java.com</t>
-  </si>
-  <si>
-    <t>2004-05-30</t>
-  </si>
-  <si>
-    <t>Kleon Matschoss</t>
-  </si>
-  <si>
-    <t>kmatschoss12@addthis.com</t>
-  </si>
-  <si>
-    <t>2003-02-14</t>
-  </si>
-  <si>
-    <t>Jackie Dohrmann</t>
-  </si>
-  <si>
-    <t>jdohrmann13@naver.com</t>
-  </si>
-  <si>
-    <t>1998-11-30</t>
-  </si>
-  <si>
-    <t>Massimiliano Whyffen</t>
-  </si>
-  <si>
-    <t>mwhyffen14@theatlantic.com</t>
-  </si>
-  <si>
-    <t>2003-07-27</t>
-  </si>
-  <si>
-    <t>Keelby Iffe</t>
-  </si>
-  <si>
-    <t>kiffe15@sbwire.com</t>
-  </si>
-  <si>
-    <t>2003-09-07</t>
-  </si>
-  <si>
-    <t>Stanley De Blasio</t>
-  </si>
-  <si>
-    <t>sde16@seattletimes.com</t>
-  </si>
-  <si>
-    <t>2003-07-30</t>
-  </si>
-  <si>
-    <t>Shem Baumann</t>
-  </si>
-  <si>
-    <t>sbaumann17@huffingtonpost.com</t>
-  </si>
-  <si>
-    <t>2001-12-09</t>
-  </si>
-  <si>
-    <t>Shawn Lammerding</t>
-  </si>
-  <si>
-    <t>slammerding18@nyu.edu</t>
-  </si>
-  <si>
-    <t>Bigender</t>
-  </si>
-  <si>
-    <t>2005-09-16</t>
-  </si>
-  <si>
-    <t>Putnam Blazdell</t>
-  </si>
-  <si>
-    <t>pblazdell19@amazon.co.jp</t>
-  </si>
-  <si>
-    <t>Genderfluid</t>
-  </si>
-  <si>
-    <t>1999-05-30</t>
-  </si>
-  <si>
-    <t>Ellyn Mustin</t>
-  </si>
-  <si>
-    <t>emustin1a@xrea.com</t>
-  </si>
-  <si>
-    <t>2001-07-15</t>
-  </si>
-  <si>
-    <t>Elga Mooney</t>
-  </si>
-  <si>
-    <t>emooney1b@macromedia.com</t>
-  </si>
-  <si>
-    <t>2003-02-20</t>
-  </si>
-  <si>
-    <t>Norrie Cullinan</t>
-  </si>
-  <si>
-    <t>ncullinan1c@istockphoto.com</t>
-  </si>
-  <si>
-    <t>2005-04-20</t>
-  </si>
-  <si>
-    <t>Garth Klemmt</t>
-  </si>
-  <si>
-    <t>gklemmt1d@wunderground.com</t>
-  </si>
-  <si>
-    <t>1995-11-20</t>
-  </si>
-  <si>
-    <t>Adamo Shelf</t>
-  </si>
-  <si>
-    <t>ashelf1e@tripod.com</t>
-  </si>
-  <si>
-    <t>2001-10-09</t>
-  </si>
-  <si>
-    <t>Josh Bontein</t>
-  </si>
-  <si>
-    <t>jbontein1f@reuters.com</t>
-  </si>
-  <si>
-    <t>1998-12-18</t>
-  </si>
-  <si>
-    <t>Ermengarde Viney</t>
-  </si>
-  <si>
-    <t>eviney1g@nymag.com</t>
-  </si>
-  <si>
-    <t>1999-10-13</t>
-  </si>
-  <si>
-    <t>Ameline Dreakin</t>
-  </si>
-  <si>
-    <t>adreakin1h@dedecms.com</t>
-  </si>
-  <si>
-    <t>1999-02-09</t>
-  </si>
-  <si>
-    <t>Kamilah Gritton</t>
-  </si>
-  <si>
-    <t>kgritton1i@patch.com</t>
-  </si>
-  <si>
-    <t>Non-binary</t>
-  </si>
-  <si>
-    <t>1995-08-30</t>
-  </si>
-  <si>
-    <t>Nannette Dybell</t>
-  </si>
-  <si>
-    <t>ndybell1j@cocolog-nifty.com</t>
-  </si>
-  <si>
-    <t>2004-12-10</t>
-  </si>
-  <si>
-    <t>Blayne Jacobsz</t>
-  </si>
-  <si>
-    <t>bjacobsz1k@tripadvisor.com</t>
-  </si>
-  <si>
-    <t>1999-06-20</t>
-  </si>
-  <si>
-    <t>Alvinia Thon</t>
-  </si>
-  <si>
-    <t>athon1l@yandex.ru</t>
-  </si>
-  <si>
-    <t>1995-07-20</t>
-  </si>
-  <si>
-    <t>Derrik Rimmer</t>
-  </si>
-  <si>
-    <t>drimmer1m@abc.net.au</t>
-  </si>
-  <si>
-    <t>2004-02-16</t>
-  </si>
-  <si>
-    <t>Arlena Melmeth</t>
-  </si>
-  <si>
-    <t>amelmeth1n@jalbum.net</t>
-  </si>
-  <si>
-    <t>1996-04-26</t>
-  </si>
-  <si>
-    <t>Kareem Clausen</t>
-  </si>
-  <si>
-    <t>kclausen1o@webeden.co.uk</t>
-  </si>
-  <si>
-    <t>2005-02-08</t>
-  </si>
-  <si>
-    <t>Margit Oyley</t>
-  </si>
-  <si>
-    <t>moyley1p@hatena.ne.jp</t>
-  </si>
-  <si>
-    <t>1997-08-10</t>
-  </si>
-  <si>
-    <t>Obie Doldon</t>
-  </si>
-  <si>
-    <t>odoldon1q@indiatimes.com</t>
-  </si>
-  <si>
-    <t>2004-12-30</t>
-  </si>
-  <si>
-    <t>Vanni Dalgleish</t>
-  </si>
-  <si>
-    <t>vdalgleish1r@bravesites.com</t>
-  </si>
-  <si>
-    <t>2001-01-01</t>
-  </si>
-  <si>
-    <t>Krissy Dourin</t>
-  </si>
-  <si>
-    <t>kdourin1s@hud.gov</t>
-  </si>
-  <si>
-    <t>1998-04-08</t>
-  </si>
-  <si>
-    <t>Berkley Naire</t>
-  </si>
-  <si>
-    <t>bnaire1t@toplist.cz</t>
+    <t>2011-07-12</t>
+  </si>
+  <si>
+    <t>Dasi Mendonca</t>
+  </si>
+  <si>
+    <t>dmendonca2f@free.fr</t>
+  </si>
+  <si>
+    <t>2004-01-10</t>
+  </si>
+  <si>
+    <t>2010-10-20</t>
+  </si>
+  <si>
+    <t>Adrian Lemery</t>
+  </si>
+  <si>
+    <t>alemery2g@networksolutions.com</t>
+  </si>
+  <si>
+    <t>2005-02-09</t>
+  </si>
+  <si>
+    <t>2017-02-09</t>
+  </si>
+  <si>
+    <t>Base Buxsy</t>
+  </si>
+  <si>
+    <t>bbuxsy2h@nba.com</t>
+  </si>
+  <si>
+    <t>2003-07-13</t>
+  </si>
+  <si>
+    <t>2023-11-13</t>
+  </si>
+  <si>
+    <t>Sarajane Scola</t>
+  </si>
+  <si>
+    <t>sscola2i@ycombinator.com</t>
+  </si>
+  <si>
+    <t>2006-06-01</t>
+  </si>
+  <si>
+    <t>2018-10-21</t>
+  </si>
+  <si>
+    <t>Zelig Feron</t>
+  </si>
+  <si>
+    <t>zferon2j@umn.edu</t>
+  </si>
+  <si>
+    <t>2006-03-26</t>
+  </si>
+  <si>
+    <t>Nappy Gorelli</t>
+  </si>
+  <si>
+    <t>ngorelli2k@bbc.co.uk</t>
+  </si>
+  <si>
+    <t>1998-04-24</t>
+  </si>
+  <si>
+    <t>2011-08-08</t>
+  </si>
+  <si>
+    <t>Ferdy Cringle</t>
+  </si>
+  <si>
+    <t>fcringle2l@163.com</t>
+  </si>
+  <si>
+    <t>1997-01-07</t>
+  </si>
+  <si>
+    <t>2024-05-08</t>
+  </si>
+  <si>
+    <t>Nicol Bosence</t>
+  </si>
+  <si>
+    <t>nbosence2m@samsung.com</t>
+  </si>
+  <si>
+    <t>2003-10-15</t>
+  </si>
+  <si>
+    <t>2012-01-22</t>
+  </si>
+  <si>
+    <t>Isis Mugridge</t>
+  </si>
+  <si>
+    <t>imugridge2n@example.com</t>
+  </si>
+  <si>
+    <t>1998-04-05</t>
+  </si>
+  <si>
+    <t>2010-03-23</t>
+  </si>
+  <si>
+    <t>Idell Berkeley</t>
+  </si>
+  <si>
+    <t>iberkeley2o@irs.gov</t>
+  </si>
+  <si>
+    <t>2002-10-19</t>
+  </si>
+  <si>
+    <t>Chantal Fessby</t>
+  </si>
+  <si>
+    <t>cfessby2p@scribd.com</t>
+  </si>
+  <si>
+    <t>2001-11-02</t>
+  </si>
+  <si>
+    <t>2012-05-20</t>
+  </si>
+  <si>
+    <t>Linnell McFall</t>
+  </si>
+  <si>
+    <t>lmcfall2q@1und1.de</t>
+  </si>
+  <si>
+    <t>2016-08-16</t>
+  </si>
+  <si>
+    <t>Philip Poppy</t>
+  </si>
+  <si>
+    <t>ppoppy2r@purevolume.com</t>
+  </si>
+  <si>
+    <t>2004-08-03</t>
+  </si>
+  <si>
+    <t>2020-04-17</t>
   </si>
   <si>
     <t>2002-08-16</t>
-  </si>
-  <si>
-    <t>Ree Dyche</t>
-  </si>
-  <si>
-    <t>rdyche1u@mail.ru</t>
-  </si>
-  <si>
-    <t>2000-12-08</t>
-  </si>
-  <si>
-    <t>Donnie Busfield</t>
-  </si>
-  <si>
-    <t>dbusfield1v@hubpages.com</t>
-  </si>
-  <si>
-    <t>2001-10-04</t>
-  </si>
-  <si>
-    <t>Thaxter Godilington</t>
-  </si>
-  <si>
-    <t>tgodilington1w@newsvine.com</t>
-  </si>
-  <si>
-    <t>2004-06-16</t>
-  </si>
-  <si>
-    <t>Peder O'Fergus</t>
-  </si>
-  <si>
-    <t>pofergus1x@harvard.edu</t>
-  </si>
-  <si>
-    <t>2000-07-22</t>
-  </si>
-  <si>
-    <t>Scot Knoller</t>
-  </si>
-  <si>
-    <t>sknoller1y@gov.uk</t>
-  </si>
-  <si>
-    <t>2003-02-26</t>
-  </si>
-  <si>
-    <t>Garland Ivshin</t>
-  </si>
-  <si>
-    <t>givshin1z@cpanel.net</t>
-  </si>
-  <si>
-    <t>2003-04-20</t>
-  </si>
-  <si>
-    <t>Celestia Folkard</t>
-  </si>
-  <si>
-    <t>cfolkard20@shutterfly.com</t>
-  </si>
-  <si>
-    <t>2000-03-04</t>
-  </si>
-  <si>
-    <t>Shelia Gellert</t>
-  </si>
-  <si>
-    <t>sgellert21@cloudflare.com</t>
-  </si>
-  <si>
-    <t>1998-11-05</t>
-  </si>
-  <si>
-    <t>Bart Labdon</t>
-  </si>
-  <si>
-    <t>blabdon22@reuters.com</t>
-  </si>
-  <si>
-    <t>1997-06-29</t>
-  </si>
-  <si>
-    <t>Annelise Tesche</t>
-  </si>
-  <si>
-    <t>atesche23@yellowpages.com</t>
-  </si>
-  <si>
-    <t>2001-12-22</t>
-  </si>
-  <si>
-    <t>Marge Confort</t>
-  </si>
-  <si>
-    <t>mconfort24@mapy.cz</t>
-  </si>
-  <si>
-    <t>1995-11-18</t>
-  </si>
-  <si>
-    <t>Leonora Prewer</t>
-  </si>
-  <si>
-    <t>lprewer25@cam.ac.uk</t>
-  </si>
-  <si>
-    <t>2001-07-19</t>
-  </si>
-  <si>
-    <t>Ahmad De Ruel</t>
-  </si>
-  <si>
-    <t>ade26@jiathis.com</t>
-  </si>
-  <si>
-    <t>1997-03-23</t>
-  </si>
-  <si>
-    <t>Constantin Schettini</t>
-  </si>
-  <si>
-    <t>cschettini27@abc.net.au</t>
-  </si>
-  <si>
-    <t>1999-03-09</t>
-  </si>
-  <si>
-    <t>Nickie Liston</t>
-  </si>
-  <si>
-    <t>nliston28@cmu.edu</t>
-  </si>
-  <si>
-    <t>2005-07-30</t>
-  </si>
-  <si>
-    <t>Heall Meijer</t>
-  </si>
-  <si>
-    <t>hmeijer29@shop-pro.jp</t>
-  </si>
-  <si>
-    <t>1998-10-26</t>
-  </si>
-  <si>
-    <t>Sim Gabitis</t>
-  </si>
-  <si>
-    <t>sgabitis2a@google.es</t>
-  </si>
-  <si>
-    <t>1999-09-04</t>
-  </si>
-  <si>
-    <t>Bobby Arnholtz</t>
-  </si>
-  <si>
-    <t>barnholtz2b@sun.com</t>
-  </si>
-  <si>
-    <t>2003-06-27</t>
-  </si>
-  <si>
-    <t>Kippie Aird</t>
-  </si>
-  <si>
-    <t>kaird2c@wix.com</t>
-  </si>
-  <si>
-    <t>2002-07-17</t>
-  </si>
-  <si>
-    <t>Tim Yosselevitch</t>
-  </si>
-  <si>
-    <t>tyosselevitch2d@istockphoto.com</t>
-  </si>
-  <si>
-    <t>2004-03-21</t>
-  </si>
-  <si>
-    <t>Jessamyn O' Connell</t>
-  </si>
-  <si>
-    <t>jo2e@redcross.org</t>
-  </si>
-  <si>
-    <t>1996-02-17</t>
-  </si>
-  <si>
-    <t>Lilian Calltone</t>
-  </si>
-  <si>
-    <t>lcalltone2f@stumbleupon.com</t>
-  </si>
-  <si>
-    <t>1998-01-18</t>
-  </si>
-  <si>
-    <t>Bank McGibbon</t>
-  </si>
-  <si>
-    <t>bmcgibbon2g@unicef.org</t>
-  </si>
-  <si>
-    <t>1999-11-01</t>
-  </si>
-  <si>
-    <t>Whit Vaar</t>
-  </si>
-  <si>
-    <t>wvaar2h@zdnet.com</t>
-  </si>
-  <si>
-    <t>2001-03-15</t>
-  </si>
-  <si>
-    <t>Zacherie Blencoe</t>
-  </si>
-  <si>
-    <t>zblencoe2i@blogtalkradio.com</t>
-  </si>
-  <si>
-    <t>1996-04-28</t>
-  </si>
-  <si>
-    <t>Law Pauly</t>
-  </si>
-  <si>
-    <t>lpauly2j@cbslocal.com</t>
-  </si>
-  <si>
-    <t>1996-11-18</t>
-  </si>
-  <si>
-    <t>Emery Klamman</t>
-  </si>
-  <si>
-    <t>eklamman2k@europa.eu</t>
-  </si>
-  <si>
-    <t>1999-04-11</t>
-  </si>
-  <si>
-    <t>Fonsie Tilsley</t>
-  </si>
-  <si>
-    <t>ftilsley2l@bandcamp.com</t>
-  </si>
-  <si>
-    <t>2002-03-30</t>
-  </si>
-  <si>
-    <t>Marin Girke</t>
-  </si>
-  <si>
-    <t>mgirke2m@nymag.com</t>
-  </si>
-  <si>
-    <t>1996-04-02</t>
-  </si>
-  <si>
-    <t>Valentia Iffe</t>
-  </si>
-  <si>
-    <t>viffe2n@woothemes.com</t>
-  </si>
-  <si>
-    <t>2003-12-16</t>
-  </si>
-  <si>
-    <t>Lay Allberry</t>
-  </si>
-  <si>
-    <t>lallberry2o@creativecommons.org</t>
-  </si>
-  <si>
-    <t>Bernard Buxy</t>
-  </si>
-  <si>
-    <t>bbuxy2p@howstuffworks.com</t>
-  </si>
-  <si>
-    <t>2001-11-27</t>
-  </si>
-  <si>
-    <t>Shauna Colisbe</t>
-  </si>
-  <si>
-    <t>scolisbe2q@dailymotion.com</t>
-  </si>
-  <si>
-    <t>1998-10-22</t>
-  </si>
-  <si>
-    <t>Hilda Ferandez</t>
-  </si>
-  <si>
-    <t>hferandez2r@google.co.uk</t>
-  </si>
-  <si>
-    <t>2001-07-22</t>
-  </si>
-  <si>
-    <t>2010-08-15</t>
-  </si>
-  <si>
-    <t>2005-08-15</t>
   </si>
 </sst>
 </file>
@@ -992,9 +1253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1312,17 +1571,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="F107" sqref="F107"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.4140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.9140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.9140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.9140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -1387,10 +1645,10 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1398,16 +1656,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1415,16 +1673,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1432,16 +1690,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1449,16 +1707,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1466,16 +1724,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1483,16 +1741,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>311</v>
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1500,16 +1758,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1517,16 +1775,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1534,16 +1792,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1551,16 +1809,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1568,16 +1826,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1585,16 +1843,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1602,16 +1860,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="E17" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1619,16 +1877,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1636,16 +1894,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="E19" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1653,16 +1911,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="E20" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1670,16 +1928,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="E21" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1687,16 +1945,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="E22" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1704,16 +1962,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="E23" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1721,16 +1979,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="E24" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1738,16 +1996,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="C25" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="D25" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="E25" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1755,16 +2013,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="C26" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="D26" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="E26" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1772,16 +2030,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="C27" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="E27" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1789,16 +2047,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="C28" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="D28" t="s">
-        <v>11</v>
+        <v>399</v>
       </c>
       <c r="E28" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1806,16 +2064,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="C29" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="D29" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="E29" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1823,16 +2081,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="C30" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="D30" t="s">
-        <v>11</v>
+        <v>118</v>
       </c>
       <c r="E30" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -1840,16 +2098,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="D31" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="E31" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -1857,16 +2115,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="C32" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="D32" t="s">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="E32" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -1874,16 +2132,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="C33" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="D33" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="E33" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -1891,16 +2149,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="C34" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="D34" t="s">
-        <v>21</v>
+        <v>134</v>
       </c>
       <c r="E34" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -1908,16 +2166,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="C35" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="D35" t="s">
-        <v>21</v>
+        <v>138</v>
       </c>
       <c r="E35" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -1925,16 +2183,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="C36" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="D36" t="s">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="E36" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -1942,16 +2200,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="C37" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="D37" t="s">
-        <v>21</v>
+        <v>146</v>
       </c>
       <c r="E37" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -1959,16 +2217,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="C38" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="D38" t="s">
-        <v>7</v>
+        <v>150</v>
       </c>
       <c r="E38" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -1976,16 +2234,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="C39" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="D39" t="s">
-        <v>21</v>
+        <v>154</v>
       </c>
       <c r="E39" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -1993,16 +2251,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="C40" t="s">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c r="D40" t="s">
-        <v>11</v>
+        <v>158</v>
       </c>
       <c r="E40" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -2010,16 +2268,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="C41" t="s">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="D41" t="s">
-        <v>11</v>
+        <v>162</v>
       </c>
       <c r="E41" t="s">
-        <v>128</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -2027,16 +2285,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="C42" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="D42" t="s">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="E42" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -2044,16 +2302,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="C43" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="D43" t="s">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="E43" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -2061,16 +2319,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="C44" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="D44" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="E44" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -2078,16 +2336,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="C45" t="s">
-        <v>139</v>
+        <v>177</v>
       </c>
       <c r="D45" t="s">
-        <v>11</v>
+        <v>178</v>
       </c>
       <c r="E45" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -2095,16 +2353,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="C46" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="D46" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="E46" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -2112,16 +2370,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="C47" t="s">
-        <v>146</v>
+        <v>185</v>
       </c>
       <c r="D47" t="s">
-        <v>147</v>
+        <v>186</v>
       </c>
       <c r="E47" t="s">
-        <v>148</v>
+        <v>187</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -2129,16 +2387,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>149</v>
+        <v>188</v>
       </c>
       <c r="C48" t="s">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c r="D48" t="s">
-        <v>21</v>
+        <v>190</v>
       </c>
       <c r="E48" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -2146,16 +2404,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>152</v>
+        <v>192</v>
       </c>
       <c r="C49" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="D49" t="s">
-        <v>21</v>
+        <v>194</v>
       </c>
       <c r="E49" t="s">
-        <v>154</v>
+        <v>195</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -2163,16 +2421,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>155</v>
+        <v>196</v>
       </c>
       <c r="C50" t="s">
-        <v>156</v>
+        <v>197</v>
       </c>
       <c r="D50" t="s">
-        <v>11</v>
+        <v>198</v>
       </c>
       <c r="E50" t="s">
-        <v>157</v>
+        <v>199</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -2180,16 +2438,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="C51" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="D51" t="s">
-        <v>11</v>
+        <v>202</v>
       </c>
       <c r="E51" t="s">
-        <v>160</v>
+        <v>203</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -2197,16 +2455,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>161</v>
+        <v>204</v>
       </c>
       <c r="C52" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="D52" t="s">
-        <v>11</v>
+        <v>206</v>
       </c>
       <c r="E52" t="s">
-        <v>163</v>
+        <v>207</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -2214,16 +2472,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>164</v>
+        <v>208</v>
       </c>
       <c r="C53" t="s">
-        <v>165</v>
+        <v>209</v>
       </c>
       <c r="D53" t="s">
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="E53" t="s">
-        <v>166</v>
+        <v>211</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -2231,16 +2489,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>167</v>
+        <v>212</v>
       </c>
       <c r="C54" t="s">
-        <v>168</v>
+        <v>213</v>
       </c>
       <c r="D54" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="E54" t="s">
-        <v>169</v>
+        <v>215</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -2248,16 +2506,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="C55" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="D55" t="s">
-        <v>21</v>
+        <v>218</v>
       </c>
       <c r="E55" t="s">
-        <v>172</v>
+        <v>219</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -2265,16 +2523,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>173</v>
+        <v>220</v>
       </c>
       <c r="C56" t="s">
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="D56" t="s">
-        <v>175</v>
+        <v>222</v>
       </c>
       <c r="E56" t="s">
-        <v>176</v>
+        <v>223</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -2282,16 +2540,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>177</v>
+        <v>224</v>
       </c>
       <c r="C57" t="s">
-        <v>178</v>
+        <v>225</v>
       </c>
       <c r="D57" t="s">
-        <v>21</v>
+        <v>226</v>
       </c>
       <c r="E57" t="s">
-        <v>179</v>
+        <v>227</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -2299,16 +2557,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>180</v>
+        <v>228</v>
       </c>
       <c r="C58" t="s">
-        <v>181</v>
+        <v>229</v>
       </c>
       <c r="D58" t="s">
-        <v>11</v>
+        <v>230</v>
       </c>
       <c r="E58" t="s">
-        <v>182</v>
+        <v>231</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -2316,16 +2574,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>183</v>
+        <v>232</v>
       </c>
       <c r="C59" t="s">
-        <v>184</v>
+        <v>233</v>
       </c>
       <c r="D59" t="s">
-        <v>21</v>
+        <v>234</v>
       </c>
       <c r="E59" t="s">
-        <v>185</v>
+        <v>235</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -2333,16 +2591,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>186</v>
+        <v>236</v>
       </c>
       <c r="C60" t="s">
-        <v>187</v>
+        <v>237</v>
       </c>
       <c r="D60" t="s">
-        <v>11</v>
+        <v>238</v>
       </c>
       <c r="E60" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -2350,16 +2608,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>189</v>
+        <v>240</v>
       </c>
       <c r="C61" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="D61" t="s">
-        <v>21</v>
+        <v>242</v>
       </c>
       <c r="E61" t="s">
-        <v>191</v>
+        <v>243</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -2367,16 +2625,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>192</v>
+        <v>244</v>
       </c>
       <c r="C62" t="s">
-        <v>193</v>
+        <v>245</v>
       </c>
       <c r="D62" t="s">
-        <v>11</v>
+        <v>246</v>
       </c>
       <c r="E62" t="s">
-        <v>194</v>
+        <v>247</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -2384,16 +2642,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>195</v>
+        <v>248</v>
       </c>
       <c r="C63" t="s">
-        <v>196</v>
+        <v>249</v>
       </c>
       <c r="D63" t="s">
-        <v>21</v>
+        <v>250</v>
       </c>
       <c r="E63" t="s">
-        <v>197</v>
+        <v>251</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -2401,16 +2659,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>198</v>
+        <v>252</v>
       </c>
       <c r="C64" t="s">
-        <v>199</v>
+        <v>253</v>
       </c>
       <c r="D64" t="s">
-        <v>11</v>
+        <v>254</v>
       </c>
       <c r="E64" t="s">
-        <v>200</v>
+        <v>255</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -2418,16 +2676,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>201</v>
+        <v>256</v>
       </c>
       <c r="C65" t="s">
-        <v>202</v>
+        <v>257</v>
       </c>
       <c r="D65" t="s">
-        <v>21</v>
+        <v>258</v>
       </c>
       <c r="E65" t="s">
-        <v>203</v>
+        <v>259</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -2435,16 +2693,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>204</v>
+        <v>260</v>
       </c>
       <c r="C66" t="s">
-        <v>205</v>
+        <v>261</v>
       </c>
       <c r="D66" t="s">
-        <v>21</v>
+        <v>262</v>
       </c>
       <c r="E66" t="s">
-        <v>206</v>
+        <v>263</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -2452,16 +2710,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>207</v>
+        <v>264</v>
       </c>
       <c r="C67" t="s">
-        <v>208</v>
+        <v>265</v>
       </c>
       <c r="D67" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="E67" t="s">
-        <v>209</v>
+        <v>267</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -2469,16 +2727,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>210</v>
+        <v>268</v>
       </c>
       <c r="C68" t="s">
-        <v>211</v>
+        <v>269</v>
       </c>
       <c r="D68" t="s">
-        <v>21</v>
+        <v>270</v>
       </c>
       <c r="E68" t="s">
-        <v>212</v>
+        <v>271</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -2486,16 +2744,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>213</v>
+        <v>272</v>
       </c>
       <c r="C69" t="s">
-        <v>214</v>
+        <v>273</v>
       </c>
       <c r="D69" t="s">
-        <v>21</v>
+        <v>274</v>
       </c>
       <c r="E69" t="s">
-        <v>215</v>
+        <v>275</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -2503,16 +2761,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>216</v>
+        <v>276</v>
       </c>
       <c r="C70" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="D70" t="s">
-        <v>11</v>
+        <v>278</v>
       </c>
       <c r="E70" t="s">
-        <v>218</v>
+        <v>279</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -2520,16 +2778,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>219</v>
+        <v>280</v>
       </c>
       <c r="C71" t="s">
-        <v>220</v>
+        <v>281</v>
       </c>
       <c r="D71" t="s">
-        <v>11</v>
+        <v>282</v>
       </c>
       <c r="E71" t="s">
-        <v>221</v>
+        <v>283</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -2537,16 +2795,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>222</v>
+        <v>284</v>
       </c>
       <c r="C72" t="s">
-        <v>223</v>
+        <v>285</v>
       </c>
       <c r="D72" t="s">
-        <v>11</v>
+        <v>286</v>
       </c>
       <c r="E72" t="s">
-        <v>224</v>
+        <v>287</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -2554,16 +2812,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>225</v>
+        <v>288</v>
       </c>
       <c r="C73" t="s">
-        <v>226</v>
+        <v>289</v>
       </c>
       <c r="D73" t="s">
-        <v>21</v>
+        <v>290</v>
       </c>
       <c r="E73" t="s">
-        <v>227</v>
+        <v>291</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -2571,16 +2829,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>228</v>
+        <v>292</v>
       </c>
       <c r="C74" t="s">
-        <v>229</v>
+        <v>293</v>
       </c>
       <c r="D74" t="s">
-        <v>21</v>
+        <v>294</v>
       </c>
       <c r="E74" t="s">
-        <v>230</v>
+        <v>295</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -2588,16 +2846,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>231</v>
+        <v>296</v>
       </c>
       <c r="C75" t="s">
-        <v>232</v>
+        <v>297</v>
       </c>
       <c r="D75" t="s">
-        <v>21</v>
+        <v>298</v>
       </c>
       <c r="E75" t="s">
-        <v>233</v>
+        <v>299</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -2605,16 +2863,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>234</v>
+        <v>300</v>
       </c>
       <c r="C76" t="s">
-        <v>235</v>
+        <v>301</v>
       </c>
       <c r="D76" t="s">
-        <v>11</v>
+        <v>302</v>
       </c>
       <c r="E76" t="s">
-        <v>236</v>
+        <v>303</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -2622,16 +2880,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>237</v>
+        <v>304</v>
       </c>
       <c r="C77" t="s">
-        <v>238</v>
+        <v>305</v>
       </c>
       <c r="D77" t="s">
-        <v>21</v>
+        <v>306</v>
       </c>
       <c r="E77" t="s">
-        <v>239</v>
+        <v>307</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -2639,16 +2897,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>240</v>
+        <v>308</v>
       </c>
       <c r="C78" t="s">
-        <v>241</v>
+        <v>309</v>
       </c>
       <c r="D78" t="s">
-        <v>21</v>
+        <v>310</v>
       </c>
       <c r="E78" t="s">
-        <v>242</v>
+        <v>311</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -2656,16 +2914,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>243</v>
+        <v>312</v>
       </c>
       <c r="C79" t="s">
-        <v>244</v>
+        <v>313</v>
       </c>
       <c r="D79" t="s">
-        <v>21</v>
+        <v>202</v>
       </c>
       <c r="E79" t="s">
-        <v>245</v>
+        <v>314</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -2673,16 +2931,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>246</v>
+        <v>315</v>
       </c>
       <c r="C80" t="s">
-        <v>247</v>
+        <v>316</v>
       </c>
       <c r="D80" t="s">
-        <v>11</v>
+        <v>317</v>
       </c>
       <c r="E80" t="s">
-        <v>248</v>
+        <v>318</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -2690,16 +2948,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>249</v>
+        <v>319</v>
       </c>
       <c r="C81" t="s">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="D81" t="s">
-        <v>11</v>
+        <v>218</v>
       </c>
       <c r="E81" t="s">
-        <v>251</v>
+        <v>321</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
@@ -2707,16 +2965,16 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>252</v>
+        <v>322</v>
       </c>
       <c r="C82" t="s">
-        <v>253</v>
+        <v>323</v>
       </c>
       <c r="D82" t="s">
-        <v>11</v>
+        <v>324</v>
       </c>
       <c r="E82" t="s">
-        <v>254</v>
+        <v>325</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
@@ -2724,16 +2982,16 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>255</v>
+        <v>326</v>
       </c>
       <c r="C83" t="s">
-        <v>256</v>
+        <v>327</v>
       </c>
       <c r="D83" t="s">
-        <v>11</v>
+        <v>328</v>
       </c>
       <c r="E83" t="s">
-        <v>257</v>
+        <v>329</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -2741,16 +2999,16 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>258</v>
+        <v>330</v>
       </c>
       <c r="C84" t="s">
-        <v>259</v>
+        <v>331</v>
       </c>
       <c r="D84" t="s">
-        <v>11</v>
+        <v>332</v>
       </c>
       <c r="E84" t="s">
-        <v>260</v>
+        <v>333</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -2758,16 +3016,16 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>261</v>
+        <v>334</v>
       </c>
       <c r="C85" t="s">
-        <v>262</v>
+        <v>335</v>
       </c>
       <c r="D85" t="s">
-        <v>21</v>
+        <v>336</v>
       </c>
       <c r="E85" t="s">
-        <v>263</v>
+        <v>337</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -2775,16 +3033,16 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>264</v>
+        <v>338</v>
       </c>
       <c r="C86" t="s">
-        <v>265</v>
+        <v>339</v>
       </c>
       <c r="D86" t="s">
-        <v>11</v>
+        <v>340</v>
       </c>
       <c r="E86" t="s">
-        <v>266</v>
+        <v>341</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
@@ -2792,16 +3050,16 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>267</v>
+        <v>342</v>
       </c>
       <c r="C87" t="s">
-        <v>268</v>
+        <v>343</v>
       </c>
       <c r="D87" t="s">
-        <v>7</v>
+        <v>344</v>
       </c>
       <c r="E87" t="s">
-        <v>269</v>
+        <v>345</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
@@ -2809,16 +3067,16 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>270</v>
+        <v>346</v>
       </c>
       <c r="C88" t="s">
-        <v>271</v>
+        <v>347</v>
       </c>
       <c r="D88" t="s">
-        <v>21</v>
+        <v>348</v>
       </c>
       <c r="E88" t="s">
-        <v>272</v>
+        <v>349</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
@@ -2826,16 +3084,16 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>273</v>
+        <v>350</v>
       </c>
       <c r="C89" t="s">
-        <v>274</v>
+        <v>351</v>
       </c>
       <c r="D89" t="s">
-        <v>175</v>
+        <v>352</v>
       </c>
       <c r="E89" t="s">
-        <v>275</v>
+        <v>353</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
@@ -2843,16 +3101,16 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>276</v>
+        <v>354</v>
       </c>
       <c r="C90" t="s">
-        <v>277</v>
+        <v>355</v>
       </c>
       <c r="D90" t="s">
-        <v>11</v>
+        <v>356</v>
       </c>
       <c r="E90" t="s">
-        <v>278</v>
+        <v>357</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
@@ -2860,16 +3118,16 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>279</v>
+        <v>358</v>
       </c>
       <c r="C91" t="s">
-        <v>280</v>
+        <v>359</v>
       </c>
       <c r="D91" t="s">
-        <v>11</v>
+        <v>360</v>
       </c>
       <c r="E91" t="s">
-        <v>281</v>
+        <v>361</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
@@ -2877,16 +3135,16 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>282</v>
+        <v>362</v>
       </c>
       <c r="C92" t="s">
-        <v>283</v>
+        <v>363</v>
       </c>
       <c r="D92" t="s">
-        <v>11</v>
+        <v>364</v>
       </c>
       <c r="E92" t="s">
-        <v>284</v>
+        <v>365</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
@@ -2894,16 +3152,16 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>285</v>
+        <v>366</v>
       </c>
       <c r="C93" t="s">
-        <v>286</v>
+        <v>367</v>
       </c>
       <c r="D93" t="s">
-        <v>11</v>
+        <v>368</v>
       </c>
       <c r="E93" t="s">
-        <v>287</v>
+        <v>394</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
@@ -2911,16 +3169,16 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>288</v>
+        <v>369</v>
       </c>
       <c r="C94" t="s">
-        <v>289</v>
+        <v>370</v>
       </c>
       <c r="D94" t="s">
-        <v>11</v>
+        <v>371</v>
       </c>
       <c r="E94" t="s">
-        <v>290</v>
+        <v>372</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
@@ -2928,16 +3186,16 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>291</v>
+        <v>373</v>
       </c>
       <c r="C95" t="s">
-        <v>292</v>
+        <v>374</v>
       </c>
       <c r="D95" t="s">
-        <v>175</v>
+        <v>375</v>
       </c>
       <c r="E95" t="s">
-        <v>293</v>
+        <v>376</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
@@ -2945,16 +3203,16 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>294</v>
+        <v>377</v>
       </c>
       <c r="C96" t="s">
-        <v>295</v>
+        <v>378</v>
       </c>
       <c r="D96" t="s">
-        <v>21</v>
+        <v>379</v>
       </c>
       <c r="E96" t="s">
-        <v>296</v>
+        <v>380</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
@@ -2962,16 +3220,16 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>297</v>
+        <v>381</v>
       </c>
       <c r="C97" t="s">
-        <v>298</v>
+        <v>382</v>
       </c>
       <c r="D97" t="s">
-        <v>21</v>
+        <v>383</v>
       </c>
       <c r="E97" t="s">
-        <v>299</v>
+        <v>384</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
@@ -2979,16 +3237,16 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>300</v>
+        <v>385</v>
       </c>
       <c r="C98" t="s">
-        <v>301</v>
+        <v>386</v>
       </c>
       <c r="D98" t="s">
-        <v>11</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>312</v>
+        <v>387</v>
+      </c>
+      <c r="E98" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
@@ -2996,16 +3254,16 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>302</v>
+        <v>388</v>
       </c>
       <c r="C99" t="s">
-        <v>303</v>
+        <v>389</v>
       </c>
       <c r="D99" t="s">
-        <v>11</v>
+        <v>390</v>
       </c>
       <c r="E99" t="s">
-        <v>304</v>
+        <v>391</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
@@ -3013,16 +3271,16 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>305</v>
+        <v>392</v>
       </c>
       <c r="C100" t="s">
-        <v>306</v>
+        <v>393</v>
       </c>
       <c r="D100" t="s">
-        <v>21</v>
+        <v>399</v>
       </c>
       <c r="E100" t="s">
-        <v>307</v>
+        <v>372</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
@@ -3030,16 +3288,16 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>308</v>
+        <v>395</v>
       </c>
       <c r="C101" t="s">
-        <v>309</v>
+        <v>396</v>
       </c>
       <c r="D101" t="s">
-        <v>21</v>
+        <v>397</v>
       </c>
       <c r="E101" t="s">
-        <v>310</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>

--- a/employee_details.xlsx
+++ b/employee_details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patol\OneDrive\Desktop\Movya\BdayFestivalWishes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55627948-38F5-41A6-BBA8-3E1DA9930F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA09F450-5317-4268-82B8-88C7A56AF3CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1213,19 +1213,22 @@
     <t>ppoppy2r@purevolume.com</t>
   </si>
   <si>
-    <t>2004-08-03</t>
-  </si>
-  <si>
     <t>2020-04-17</t>
   </si>
   <si>
     <t>2002-08-16</t>
+  </si>
+  <si>
+    <t>2024-08-20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-14009]yyyy/mm/dd;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1253,8 +1256,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1571,8 +1575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="F91" sqref="F91"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1580,7 +1584,7 @@
     <col min="1" max="1" width="6.4140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.4140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.9140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.9140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.9140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -1593,10 +1597,10 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1610,10 +1614,10 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1627,10 +1631,10 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1644,10 +1648,10 @@
       <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1661,10 +1665,10 @@
       <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1678,10 +1682,10 @@
       <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1695,10 +1699,10 @@
       <c r="C7" t="s">
         <v>26</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1712,10 +1716,10 @@
       <c r="C8" t="s">
         <v>30</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1729,10 +1733,10 @@
       <c r="C9" t="s">
         <v>34</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1746,10 +1750,10 @@
       <c r="C10" t="s">
         <v>38</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1763,10 +1767,10 @@
       <c r="C11" t="s">
         <v>42</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1780,10 +1784,10 @@
       <c r="C12" t="s">
         <v>46</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1797,10 +1801,10 @@
       <c r="C13" t="s">
         <v>50</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1814,10 +1818,10 @@
       <c r="C14" t="s">
         <v>54</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="1" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1831,10 +1835,10 @@
       <c r="C15" t="s">
         <v>58</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="1" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1848,10 +1852,10 @@
       <c r="C16" t="s">
         <v>62</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="1" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1865,10 +1869,10 @@
       <c r="C17" t="s">
         <v>66</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="1" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1882,10 +1886,10 @@
       <c r="C18" t="s">
         <v>70</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="1" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1899,10 +1903,10 @@
       <c r="C19" t="s">
         <v>74</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="1" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1916,10 +1920,10 @@
       <c r="C20" t="s">
         <v>78</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="1" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1933,10 +1937,10 @@
       <c r="C21" t="s">
         <v>82</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="1" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1950,10 +1954,10 @@
       <c r="C22" t="s">
         <v>86</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="1" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1967,10 +1971,10 @@
       <c r="C23" t="s">
         <v>90</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="1" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1984,10 +1988,10 @@
       <c r="C24" t="s">
         <v>94</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="1" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2001,10 +2005,10 @@
       <c r="C25" t="s">
         <v>98</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="1" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2018,10 +2022,10 @@
       <c r="C26" t="s">
         <v>102</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="1" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2035,10 +2039,10 @@
       <c r="C27" t="s">
         <v>106</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="1" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2052,10 +2056,10 @@
       <c r="C28" t="s">
         <v>110</v>
       </c>
-      <c r="D28" t="s">
-        <v>399</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="D28" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2069,10 +2073,10 @@
       <c r="C29" t="s">
         <v>113</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="1" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2086,10 +2090,10 @@
       <c r="C30" t="s">
         <v>117</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="1" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2103,10 +2107,10 @@
       <c r="C31" t="s">
         <v>121</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="1" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2120,10 +2124,10 @@
       <c r="C32" t="s">
         <v>125</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="1" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2137,10 +2141,10 @@
       <c r="C33" t="s">
         <v>129</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="1" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2154,10 +2158,10 @@
       <c r="C34" t="s">
         <v>133</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="1" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2171,10 +2175,10 @@
       <c r="C35" t="s">
         <v>137</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="1" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2188,10 +2192,10 @@
       <c r="C36" t="s">
         <v>141</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="1" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2205,10 +2209,10 @@
       <c r="C37" t="s">
         <v>145</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="1" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2222,10 +2226,10 @@
       <c r="C38" t="s">
         <v>149</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="1" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2239,10 +2243,10 @@
       <c r="C39" t="s">
         <v>153</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="1" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2256,10 +2260,10 @@
       <c r="C40" t="s">
         <v>157</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="1" t="s">
         <v>159</v>
       </c>
     </row>
@@ -2273,10 +2277,10 @@
       <c r="C41" t="s">
         <v>161</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="1" t="s">
         <v>163</v>
       </c>
     </row>
@@ -2290,10 +2294,10 @@
       <c r="C42" t="s">
         <v>165</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="1" t="s">
         <v>167</v>
       </c>
     </row>
@@ -2307,10 +2311,10 @@
       <c r="C43" t="s">
         <v>169</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="1" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2324,10 +2328,10 @@
       <c r="C44" t="s">
         <v>173</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="1" t="s">
         <v>175</v>
       </c>
     </row>
@@ -2341,10 +2345,10 @@
       <c r="C45" t="s">
         <v>177</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="1" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2358,10 +2362,10 @@
       <c r="C46" t="s">
         <v>181</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2375,10 +2379,10 @@
       <c r="C47" t="s">
         <v>185</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="1" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2392,10 +2396,10 @@
       <c r="C48" t="s">
         <v>189</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="1" t="s">
         <v>191</v>
       </c>
     </row>
@@ -2409,10 +2413,10 @@
       <c r="C49" t="s">
         <v>193</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="1" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2426,10 +2430,10 @@
       <c r="C50" t="s">
         <v>197</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="1" t="s">
         <v>199</v>
       </c>
     </row>
@@ -2443,10 +2447,10 @@
       <c r="C51" t="s">
         <v>201</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="1" t="s">
         <v>203</v>
       </c>
     </row>
@@ -2460,10 +2464,10 @@
       <c r="C52" t="s">
         <v>205</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="1" t="s">
         <v>207</v>
       </c>
     </row>
@@ -2477,10 +2481,10 @@
       <c r="C53" t="s">
         <v>209</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="1" t="s">
         <v>211</v>
       </c>
     </row>
@@ -2494,10 +2498,10 @@
       <c r="C54" t="s">
         <v>213</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="1" t="s">
         <v>215</v>
       </c>
     </row>
@@ -2511,10 +2515,10 @@
       <c r="C55" t="s">
         <v>217</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="1" t="s">
         <v>219</v>
       </c>
     </row>
@@ -2528,10 +2532,10 @@
       <c r="C56" t="s">
         <v>221</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="1" t="s">
         <v>223</v>
       </c>
     </row>
@@ -2545,10 +2549,10 @@
       <c r="C57" t="s">
         <v>225</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="1" t="s">
         <v>227</v>
       </c>
     </row>
@@ -2562,10 +2566,10 @@
       <c r="C58" t="s">
         <v>229</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="1" t="s">
         <v>231</v>
       </c>
     </row>
@@ -2579,10 +2583,10 @@
       <c r="C59" t="s">
         <v>233</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -2596,10 +2600,10 @@
       <c r="C60" t="s">
         <v>237</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="1" t="s">
         <v>239</v>
       </c>
     </row>
@@ -2613,10 +2617,10 @@
       <c r="C61" t="s">
         <v>241</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="1" t="s">
         <v>243</v>
       </c>
     </row>
@@ -2630,10 +2634,10 @@
       <c r="C62" t="s">
         <v>245</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="1" t="s">
         <v>247</v>
       </c>
     </row>
@@ -2647,10 +2651,10 @@
       <c r="C63" t="s">
         <v>249</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="1" t="s">
         <v>251</v>
       </c>
     </row>
@@ -2664,10 +2668,10 @@
       <c r="C64" t="s">
         <v>253</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="1" t="s">
         <v>255</v>
       </c>
     </row>
@@ -2681,10 +2685,10 @@
       <c r="C65" t="s">
         <v>257</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="1" t="s">
         <v>259</v>
       </c>
     </row>
@@ -2698,10 +2702,10 @@
       <c r="C66" t="s">
         <v>261</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="1" t="s">
         <v>263</v>
       </c>
     </row>
@@ -2715,10 +2719,10 @@
       <c r="C67" t="s">
         <v>265</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="1" t="s">
         <v>267</v>
       </c>
     </row>
@@ -2732,10 +2736,10 @@
       <c r="C68" t="s">
         <v>269</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="1" t="s">
         <v>271</v>
       </c>
     </row>
@@ -2749,10 +2753,10 @@
       <c r="C69" t="s">
         <v>273</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" s="1" t="s">
         <v>275</v>
       </c>
     </row>
@@ -2766,10 +2770,10 @@
       <c r="C70" t="s">
         <v>277</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" s="1" t="s">
         <v>279</v>
       </c>
     </row>
@@ -2783,10 +2787,10 @@
       <c r="C71" t="s">
         <v>281</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71" s="1" t="s">
         <v>283</v>
       </c>
     </row>
@@ -2800,10 +2804,10 @@
       <c r="C72" t="s">
         <v>285</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E72" s="1" t="s">
         <v>287</v>
       </c>
     </row>
@@ -2817,10 +2821,10 @@
       <c r="C73" t="s">
         <v>289</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" s="1" t="s">
         <v>291</v>
       </c>
     </row>
@@ -2834,10 +2838,10 @@
       <c r="C74" t="s">
         <v>293</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" s="1" t="s">
         <v>295</v>
       </c>
     </row>
@@ -2851,10 +2855,10 @@
       <c r="C75" t="s">
         <v>297</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" s="1" t="s">
         <v>299</v>
       </c>
     </row>
@@ -2868,10 +2872,10 @@
       <c r="C76" t="s">
         <v>301</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" s="1" t="s">
         <v>303</v>
       </c>
     </row>
@@ -2885,10 +2889,10 @@
       <c r="C77" t="s">
         <v>305</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" s="1" t="s">
         <v>307</v>
       </c>
     </row>
@@ -2902,10 +2906,10 @@
       <c r="C78" t="s">
         <v>309</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E78" s="1" t="s">
         <v>311</v>
       </c>
     </row>
@@ -2919,10 +2923,10 @@
       <c r="C79" t="s">
         <v>313</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" s="1" t="s">
         <v>314</v>
       </c>
     </row>
@@ -2936,10 +2940,10 @@
       <c r="C80" t="s">
         <v>316</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80" s="1" t="s">
         <v>318</v>
       </c>
     </row>
@@ -2953,10 +2957,10 @@
       <c r="C81" t="s">
         <v>320</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" s="1" t="s">
         <v>321</v>
       </c>
     </row>
@@ -2970,10 +2974,10 @@
       <c r="C82" t="s">
         <v>323</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E82" s="1" t="s">
         <v>325</v>
       </c>
     </row>
@@ -2987,10 +2991,10 @@
       <c r="C83" t="s">
         <v>327</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E83" s="1" t="s">
         <v>329</v>
       </c>
     </row>
@@ -3004,10 +3008,10 @@
       <c r="C84" t="s">
         <v>331</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E84" s="1" t="s">
         <v>333</v>
       </c>
     </row>
@@ -3021,10 +3025,10 @@
       <c r="C85" t="s">
         <v>335</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E85" s="1" t="s">
         <v>337</v>
       </c>
     </row>
@@ -3038,10 +3042,10 @@
       <c r="C86" t="s">
         <v>339</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E86" s="1" t="s">
         <v>341</v>
       </c>
     </row>
@@ -3055,10 +3059,10 @@
       <c r="C87" t="s">
         <v>343</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E87" s="1" t="s">
         <v>345</v>
       </c>
     </row>
@@ -3072,10 +3076,10 @@
       <c r="C88" t="s">
         <v>347</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E88" s="1" t="s">
         <v>349</v>
       </c>
     </row>
@@ -3089,10 +3093,10 @@
       <c r="C89" t="s">
         <v>351</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E89" s="1" t="s">
         <v>353</v>
       </c>
     </row>
@@ -3106,10 +3110,10 @@
       <c r="C90" t="s">
         <v>355</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E90" s="1" t="s">
         <v>357</v>
       </c>
     </row>
@@ -3123,10 +3127,10 @@
       <c r="C91" t="s">
         <v>359</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E91" s="1" t="s">
         <v>361</v>
       </c>
     </row>
@@ -3140,10 +3144,10 @@
       <c r="C92" t="s">
         <v>363</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E92" s="1" t="s">
         <v>365</v>
       </c>
     </row>
@@ -3157,10 +3161,10 @@
       <c r="C93" t="s">
         <v>367</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E93" s="1" t="s">
         <v>394</v>
       </c>
     </row>
@@ -3174,10 +3178,10 @@
       <c r="C94" t="s">
         <v>370</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E94" s="1" t="s">
         <v>372</v>
       </c>
     </row>
@@ -3191,10 +3195,10 @@
       <c r="C95" t="s">
         <v>374</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E95" s="1" t="s">
         <v>376</v>
       </c>
     </row>
@@ -3208,10 +3212,10 @@
       <c r="C96" t="s">
         <v>378</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E96" s="1" t="s">
         <v>380</v>
       </c>
     </row>
@@ -3225,10 +3229,10 @@
       <c r="C97" t="s">
         <v>382</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E97" s="1" t="s">
         <v>384</v>
       </c>
     </row>
@@ -3242,10 +3246,10 @@
       <c r="C98" t="s">
         <v>386</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E98" s="1" t="s">
         <v>394</v>
       </c>
     </row>
@@ -3259,10 +3263,10 @@
       <c r="C99" t="s">
         <v>389</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E99" s="1" t="s">
         <v>391</v>
       </c>
     </row>
@@ -3276,10 +3280,10 @@
       <c r="C100" t="s">
         <v>393</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E100" s="1" t="s">
         <v>372</v>
       </c>
     </row>
@@ -3293,11 +3297,11 @@
       <c r="C101" t="s">
         <v>396</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="E101" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="E101" t="s">
-        <v>398</v>
       </c>
     </row>
   </sheetData>
